--- a/tspi/ciclo-4/plan4-20106381.xlsx
+++ b/tspi/ciclo-4/plan4-20106381.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -123,6 +123,27 @@
   </si>
   <si>
     <t>El equipo estimó el tamaño y el tiempo de producción de los elementos a producir en el ciclo #4. El equipo definió actualizó el diseño conceptual del proyecto y completó la forma STRAT. El equipo actualizó el documento los riesgos y problemas.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado un ciclo preeviamente.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado un ciclo preeviamente. Cada miembro del equipo ha leído el capítulo correspondiente a su rol.</t>
+  </si>
+  <si>
+    <t>Se ha creado la versión final del documento de requerimientos.</t>
+  </si>
+  <si>
+    <t>Se ha creado el reporte de inspección del documento de requerimientos.</t>
+  </si>
+  <si>
+    <t>Se ha creado la versión final del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se ha implementado la funcionalidad #2 del producto.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado los productos especificados. El equipo ha acumulado toda la información y ha completado todas las formas requeridas.</t>
   </si>
 </sst>
 </file>
@@ -662,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALY9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -722,7 +743,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>32</v>
@@ -1759,7 +1780,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>33</v>
@@ -2796,7 +2817,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>27</v>
@@ -3833,7 +3854,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>28</v>
@@ -4870,7 +4891,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>29</v>
@@ -5907,7 +5928,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>22</v>
@@ -5942,7 +5963,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>23</v>

--- a/tspi/ciclo-4/plan4-20106381.xlsx
+++ b/tspi/ciclo-4/plan4-20106381.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecvasro\workspace\github\PPR\tspi\ciclo-4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400"/>
+    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
     <sheet name="task" sheetId="2" r:id="rId2"/>
     <sheet name="logt" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -144,6 +142,12 @@
   </si>
   <si>
     <t>El equipo ha completado los productos especificados. El equipo ha acumulado toda la información y ha completado todas las formas requeridas.</t>
+  </si>
+  <si>
+    <t>Reporte de pm y peer review form.</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
   </si>
 </sst>
 </file>
@@ -313,8 +317,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -437,7 +469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,7 +504,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALY9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6008,7 +6040,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6031,22 +6063,34 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4">
+        <v>62</v>
+      </c>
       <c r="B2" s="4">
         <f>SUMIF(logt!G:G,task!A2,logt!F:F)/60</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4">
+        <v>63</v>
+      </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4">
+        <v>61</v>
+      </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
@@ -6123,10 +6167,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6168,39 +6212,95 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
+        <v>41924</v>
+      </c>
+      <c r="B2" s="17">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F2" s="12">
         <f t="shared" ref="F2" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="27"/>
+        <v>60</v>
+      </c>
+      <c r="G2" s="17">
+        <v>62</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" s="28"/>
+      <c r="A3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="17">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E3" s="17">
+        <v>30</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F4" si="1">((HOUR(D3)-HOUR(C3))*60)+(MINUTE(D3)-MINUTE(C3))-E3</f>
+        <v>30</v>
+      </c>
+      <c r="G3" s="17">
+        <v>63</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="13"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>41930</v>
+      </c>
+      <c r="B4" s="17">
+        <v>8</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E4" s="17">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G4" s="17">
+        <v>61</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="18"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="28"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="18"/>
-      <c r="H7" s="8"/>
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
@@ -6215,23 +6315,21 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="18"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="18"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="18"/>
-      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="18"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="15"/>
-      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
@@ -6239,7 +6337,6 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="15"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -6249,6 +6346,7 @@
       <c r="D13" s="14"/>
       <c r="E13" s="18"/>
       <c r="F13" s="15"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
@@ -6257,24 +6355,23 @@
       <c r="D14" s="14"/>
       <c r="E14" s="18"/>
       <c r="F14" s="15"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="18"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="18"/>
       <c r="F15" s="15"/>
-      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="18"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="18"/>
       <c r="F16" s="15"/>
-      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
@@ -6283,38 +6380,40 @@
       <c r="D17" s="14"/>
       <c r="E17" s="18"/>
       <c r="F17" s="15"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="23"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="15"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="13"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F20" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="15"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F21" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="15"/>
+    <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
@@ -6428,6 +6527,22 @@
       <c r="E37" s="18"/>
       <c r="F37" s="15"/>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="23"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="23"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/tspi/ciclo-4/plan4-20106381.xlsx
+++ b/tspi/ciclo-4/plan4-20106381.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecvasro\workspace\github\ppr\tspi\ciclo-4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400" activeTab="2"/>
+    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -469,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,7 +509,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6039,8 +6044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6078,7 +6083,10 @@
       <c r="A3" s="4">
         <v>63</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4">
+        <f>SUMIF(logt!G:G,task!A3,logt!F:F)/60</f>
+        <v>0.5</v>
+      </c>
       <c r="C3" s="4">
         <v>8</v>
       </c>
@@ -6087,7 +6095,10 @@
       <c r="A4" s="4">
         <v>61</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <f>SUMIF(logt!G:G,task!A4,logt!F:F)/60</f>
+        <v>0.58333333333333337</v>
+      </c>
       <c r="C4" s="4">
         <v>8</v>
       </c>
@@ -6169,8 +6180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/tspi/ciclo-4/plan4-20106381.xlsx
+++ b/tspi/ciclo-4/plan4-20106381.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="400" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="819" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -139,7 +139,22 @@
     <t>10/13/2014</t>
   </si>
   <si>
-    <t>Reporte de pm y peer review form.</t>
+    <t>Reporte de pm y peer review form. Ciclo #3</t>
+  </si>
+  <si>
+    <t>Inspeccion del documento de requerimientos</t>
+  </si>
+  <si>
+    <t>Arreglar los errores encontrados en el documento de requerimientos</t>
+  </si>
+  <si>
+    <t>Inspeccion del documento de Arquitectura</t>
+  </si>
+  <si>
+    <t>Arregalar errores  del documento de Arquitectura</t>
+  </si>
+  <si>
+    <t>Version Final del documento de calidad</t>
   </si>
 </sst>
 </file>
@@ -256,7 +271,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -297,23 +312,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -323,14 +334,6 @@
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -416,7 +419,7 @@
   </sheetPr>
   <dimension ref="1:10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -468,7 +471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="7" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>62</v>
       </c>
@@ -487,7 +490,6 @@
       <c r="F2" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="G2" s="7"/>
       <c r="H2" s="7" t="n">
         <v>1</v>
       </c>
@@ -503,19 +505,19 @@
       <c r="L2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="ALZ2" s="11"/>
-      <c r="AMA2" s="11"/>
-      <c r="AMB2" s="11"/>
-      <c r="AMC2" s="11"/>
-      <c r="AMD2" s="11"/>
-      <c r="AME2" s="11"/>
-      <c r="AMF2" s="11"/>
-      <c r="AMG2" s="11"/>
-      <c r="AMH2" s="11"/>
-      <c r="AMI2" s="11"/>
-      <c r="AMJ2" s="11"/>
+      <c r="ALZ2" s="3"/>
+      <c r="AMA2" s="3"/>
+      <c r="AMB2" s="3"/>
+      <c r="AMC2" s="3"/>
+      <c r="AMD2" s="3"/>
+      <c r="AME2" s="3"/>
+      <c r="AMF2" s="3"/>
+      <c r="AMG2" s="3"/>
+      <c r="AMH2" s="3"/>
+      <c r="AMI2" s="3"/>
+      <c r="AMJ2" s="3"/>
     </row>
-    <row r="3" s="10" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="7" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
         <v>63</v>
       </c>
@@ -534,7 +536,6 @@
       <c r="F3" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="G3" s="7"/>
       <c r="H3" s="7" t="n">
         <v>1</v>
       </c>
@@ -550,19 +551,19 @@
       <c r="L3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="ALZ3" s="11"/>
-      <c r="AMA3" s="11"/>
-      <c r="AMB3" s="11"/>
-      <c r="AMC3" s="11"/>
-      <c r="AMD3" s="11"/>
-      <c r="AME3" s="11"/>
-      <c r="AMF3" s="11"/>
-      <c r="AMG3" s="11"/>
-      <c r="AMH3" s="11"/>
-      <c r="AMI3" s="11"/>
-      <c r="AMJ3" s="11"/>
+      <c r="ALZ3" s="3"/>
+      <c r="AMA3" s="3"/>
+      <c r="AMB3" s="3"/>
+      <c r="AMC3" s="3"/>
+      <c r="AMD3" s="3"/>
+      <c r="AME3" s="3"/>
+      <c r="AMF3" s="3"/>
+      <c r="AMG3" s="3"/>
+      <c r="AMH3" s="3"/>
+      <c r="AMI3" s="3"/>
+      <c r="AMJ3" s="3"/>
     </row>
-    <row r="4" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>66</v>
       </c>
@@ -589,17 +590,6 @@
       </c>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
-      <c r="ALZ4" s="3"/>
-      <c r="AMA4" s="3"/>
-      <c r="AMB4" s="3"/>
-      <c r="AMC4" s="3"/>
-      <c r="AMD4" s="3"/>
-      <c r="AME4" s="3"/>
-      <c r="AMF4" s="3"/>
-      <c r="AMG4" s="3"/>
-      <c r="AMH4" s="3"/>
-      <c r="AMI4" s="3"/>
-      <c r="AMJ4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
@@ -793,10 +783,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="1:10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1838,12 +1828,12 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>62</v>
       </c>
       <c r="B2" s="7" t="n">
-        <f aca="false">SUMIF(logt!G:G,task!A2,logt!F:F)/60</f>
+        <f aca="false">SUMIF(logt!G2:G9,A2,logt!F2:F9)/60</f>
         <v>1</v>
       </c>
       <c r="C2" s="7" t="n">
@@ -2876,7 +2866,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="7" t="n">
-        <f aca="false">SUMIF(logt!G:G,task!A3,logt!F:F)/60</f>
+        <f aca="false">SUMIF(logt!G3:G10,A3,logt!F3:F10)/60</f>
         <v>0.5</v>
       </c>
       <c r="C3" s="7" t="n">
@@ -3904,18 +3894,67 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>61</v>
       </c>
       <c r="B4" s="7" t="n">
-        <f aca="false">SUMIF(logt!G:G,task!A4,logt!F:F)/60</f>
+        <f aca="false">SUMIF(logt!G4:G11,A4,logt!F4:F11)/60</f>
         <v>0.583333333333333</v>
       </c>
       <c r="C4" s="7" t="n">
         <v>8</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
+        <v>66</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <f aca="false">SUMIF(logt!G5:G12,A5,logt!F5:F12)/60</f>
+        <v>1.83333333333333</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
+        <v>67</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <f aca="false">SUMIF(logt!G6:G13,A6,logt!F6:F13)/60</f>
+        <v>2.75</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <v>68</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <f aca="false">SUMIF(logt!G7:G14,A7,logt!F7:F14)/60</f>
+        <v>1.75</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
+        <v>69</v>
+      </c>
+      <c r="B8" s="7" t="n">
+        <f aca="false">SUMIF(logt!G8:G15,A8,logt!F8:F15)/60</f>
+        <v>1.83333333333333</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3932,25 +3971,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="1:9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="13.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="13.1377551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="15" width="13.1377551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="13.1377551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="13.1377551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="6.28061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="7" width="13.1377551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="6.28061224489796"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="45.9948979591837"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="3" width="11.8622448979592"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="12" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -3963,41 +3998,41 @@
       <c r="D1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="n">
         <v>41924</v>
       </c>
-      <c r="B2" s="14" t="n">
+      <c r="B2" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="15" t="n">
+      <c r="C2" s="14" t="n">
         <v>0.625</v>
       </c>
-      <c r="D2" s="15" t="n">
+      <c r="D2" s="14" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="E2" s="0"/>
-      <c r="F2" s="16" t="n">
+      <c r="F2" s="15" t="n">
         <f aca="false">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
         <v>60</v>
       </c>
-      <c r="G2" s="14" t="n">
+      <c r="G2" s="7" t="n">
         <v>62</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0"/>
@@ -5017,30 +5052,30 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="14" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="D3" s="14" t="n">
         <v>0.708333333333333</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="F3" s="16" t="n">
+      <c r="F3" s="15" t="n">
         <f aca="false">((HOUR(D3)-HOUR(C3))*60)+(MINUTE(D3)-MINUTE(C3))-E3</f>
         <v>30</v>
       </c>
-      <c r="G3" s="14" t="n">
+      <c r="G3" s="7" t="n">
         <v>63</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="0"/>
@@ -6060,30 +6095,30 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="n">
         <v>41930</v>
       </c>
-      <c r="B4" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" s="15" t="n">
+      <c r="B4" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="D4" s="15" t="n">
+      <c r="D4" s="14" t="n">
         <v>0.364583333333333</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F4" s="16" t="n">
+      <c r="F4" s="15" t="n">
         <f aca="false">((HOUR(D4)-HOUR(C4))*60)+(MINUTE(D4)-MINUTE(C4))-E4</f>
         <v>35</v>
       </c>
-      <c r="G4" s="14" t="n">
+      <c r="G4" s="7" t="n">
         <v>61</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="16" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="0"/>
@@ -7103,6 +7138,126 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="n">
+        <v>41936</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D5" s="14" t="n">
+        <v>0.409722222222222</v>
+      </c>
+      <c r="F5" s="15" t="n">
+        <f aca="false">((HOUR(D5)-HOUR(C5))*60)+(MINUTE(D5)-MINUTE(C5))-E5</f>
+        <v>110</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>66</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="n">
+        <v>41936</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <f aca="false">((HOUR(D6)-HOUR(C6))*60)+(MINUTE(D6)-MINUTE(C6))-E6</f>
+        <v>165</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>67</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="n">
+        <v>41937</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" s="14" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D7" s="14" t="n">
+        <v>0.614583333333333</v>
+      </c>
+      <c r="F7" s="15" t="n">
+        <f aca="false">((HOUR(D7)-HOUR(C7))*60)+(MINUTE(D7)-MINUTE(C7))-E7</f>
+        <v>105</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>68</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="n">
+        <v>41938</v>
+      </c>
+      <c r="B8" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="14" t="n">
+        <v>0.614583333333333</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>0.690972222222222</v>
+      </c>
+      <c r="F8" s="15" t="n">
+        <f aca="false">((HOUR(D8)-HOUR(C8))*60)+(MINUTE(D8)-MINUTE(C8))-E8</f>
+        <v>110</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>69</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="n">
+        <v>41939</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" s="14" t="n">
+        <v>0.340277777777778</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <v>0.506944444444444</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <f aca="false">((HOUR(D9)-HOUR(C9))*60)+(MINUTE(D9)-MINUTE(C9))-E9</f>
+        <v>240</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>59</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/tspi/ciclo-4/plan4-20106381.xlsx
+++ b/tspi/ciclo-4/plan4-20106381.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="819" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="819" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Comentario</t>
   </si>
   <si>
-    <t>10/13/2014</t>
-  </si>
-  <si>
     <t>Reporte de pm y peer review form. Ciclo #3</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Version Final del documento de calidad</t>
+  </si>
+  <si>
+    <t>Testeo Funcionalidad #4</t>
   </si>
 </sst>
 </file>
@@ -785,8 +785,8 @@
   </sheetPr>
   <dimension ref="1:10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3954,7 +3954,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
+        <v>75</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <f aca="false">SUMIF(logt!G9:G16,A9,logt!F9:F16)/60</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
+        <v>78</v>
+      </c>
+      <c r="B10" s="7" t="n">
+        <f aca="false">SUMIF(logt!G10:G17,A10,logt!F10:F17)/60</f>
+        <v>0.716666666666667</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3971,10 +3994,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:9"/>
+  <dimension ref="1:11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4013,7 +4036,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="n">
-        <v>41924</v>
+        <v>41955</v>
       </c>
       <c r="B2" s="7" t="n">
         <v>8</v>
@@ -5053,8 +5076,8 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>38</v>
+      <c r="A3" s="13" t="n">
+        <v>41956</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>8</v>
@@ -6097,7 +6120,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="n">
-        <v>41930</v>
+        <v>41961</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>9</v>
@@ -6119,7 +6142,7 @@
         <v>61</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
@@ -7151,6 +7174,7 @@
       <c r="D5" s="14" t="n">
         <v>0.409722222222222</v>
       </c>
+      <c r="E5" s="0"/>
       <c r="F5" s="15" t="n">
         <f aca="false">((HOUR(D5)-HOUR(C5))*60)+(MINUTE(D5)-MINUTE(C5))-E5</f>
         <v>110</v>
@@ -7159,7 +7183,7 @@
         <v>66</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,6 +7199,7 @@
       <c r="D6" s="14" t="n">
         <v>0.53125</v>
       </c>
+      <c r="E6" s="0"/>
       <c r="F6" s="15" t="n">
         <f aca="false">((HOUR(D6)-HOUR(C6))*60)+(MINUTE(D6)-MINUTE(C6))-E6</f>
         <v>165</v>
@@ -7183,12 +7208,12 @@
         <v>67</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
-        <v>41937</v>
+        <v>41968</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>10</v>
@@ -7199,6 +7224,7 @@
       <c r="D7" s="14" t="n">
         <v>0.614583333333333</v>
       </c>
+      <c r="E7" s="0"/>
       <c r="F7" s="15" t="n">
         <f aca="false">((HOUR(D7)-HOUR(C7))*60)+(MINUTE(D7)-MINUTE(C7))-E7</f>
         <v>105</v>
@@ -7207,12 +7233,12 @@
         <v>68</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
-        <v>41938</v>
+        <v>41969</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>10</v>
@@ -7223,6 +7249,7 @@
       <c r="D8" s="14" t="n">
         <v>0.690972222222222</v>
       </c>
+      <c r="E8" s="0"/>
       <c r="F8" s="15" t="n">
         <f aca="false">((HOUR(D8)-HOUR(C8))*60)+(MINUTE(D8)-MINUTE(C8))-E8</f>
         <v>110</v>
@@ -7231,12 +7258,12 @@
         <v>69</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
-        <v>41939</v>
+        <v>41970</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>10</v>
@@ -7247,6 +7274,7 @@
       <c r="D9" s="14" t="n">
         <v>0.506944444444444</v>
       </c>
+      <c r="E9" s="0"/>
       <c r="F9" s="15" t="n">
         <f aca="false">((HOUR(D9)-HOUR(C9))*60)+(MINUTE(D9)-MINUTE(C9))-E9</f>
         <v>240</v>
@@ -7255,7 +7283,61 @@
         <v>59</v>
       </c>
       <c r="H9" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="n">
+        <v>41974</v>
+      </c>
+      <c r="B10" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" s="14" t="n">
+        <v>0.381944444444444</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>0.475694444444444</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <f aca="false">((HOUR(D10)-HOUR(C10))*60)+(MINUTE(D10)-MINUTE(C10))-E10</f>
+        <v>120</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>75</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="n">
+        <v>41977</v>
+      </c>
+      <c r="B11" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="14" t="n">
+        <v>0.386805555555556</v>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>0.423611111111111</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="15" t="n">
+        <f aca="false">((HOUR(D11)-HOUR(C11))*60)+(MINUTE(D11)-MINUTE(C11))-E11</f>
+        <v>43</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>78</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/tspi/ciclo-4/plan4-20106381.xlsx
+++ b/tspi/ciclo-4/plan4-20106381.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Arregalar errores  del documento de Arquitectura</t>
+  </si>
+  <si>
+    <t>Testeo de la funcionalidad #1</t>
   </si>
   <si>
     <t>Version Final del documento de calidad</t>
@@ -783,10 +786,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:10"/>
+  <dimension ref="1:11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1833,7 +1836,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="7" t="n">
-        <f aca="false">SUMIF(logt!G2:G9,A2,logt!F2:F9)/60</f>
+        <f aca="false">SUMIF(logt!$G$2:$G$100,A2,logt!$F$2:$F$100)/60</f>
         <v>1</v>
       </c>
       <c r="C2" s="7" t="n">
@@ -2866,7 +2869,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="7" t="n">
-        <f aca="false">SUMIF(logt!G3:G10,A3,logt!F3:F10)/60</f>
+        <f aca="false">SUMIF(logt!$G$2:$G$100,A3,logt!$F$2:$F$100)/60</f>
         <v>0.5</v>
       </c>
       <c r="C3" s="7" t="n">
@@ -3899,7 +3902,7 @@
         <v>61</v>
       </c>
       <c r="B4" s="7" t="n">
-        <f aca="false">SUMIF(logt!G4:G11,A4,logt!F4:F11)/60</f>
+        <f aca="false">SUMIF(logt!$G$2:$G$100,A4,logt!$F$2:$F$100)/60</f>
         <v>0.583333333333333</v>
       </c>
       <c r="C4" s="7" t="n">
@@ -3911,7 +3914,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="7" t="n">
-        <f aca="false">SUMIF(logt!G5:G12,A5,logt!F5:F12)/60</f>
+        <f aca="false">SUMIF(logt!$G$2:$G$100,A5,logt!$F$2:$F$100)/60</f>
         <v>1.83333333333333</v>
       </c>
       <c r="C5" s="11" t="n">
@@ -3923,7 +3926,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="7" t="n">
-        <f aca="false">SUMIF(logt!G6:G13,A6,logt!F6:F13)/60</f>
+        <f aca="false">SUMIF(logt!$G$2:$G$100,A6,logt!$F$2:$F$100)/60</f>
         <v>2.75</v>
       </c>
       <c r="C6" s="11" t="n">
@@ -3935,7 +3938,7 @@
         <v>68</v>
       </c>
       <c r="B7" s="7" t="n">
-        <f aca="false">SUMIF(logt!G7:G14,A7,logt!F7:F14)/60</f>
+        <f aca="false">SUMIF(logt!$G$2:$G$100,A7,logt!$F$2:$F$100)/60</f>
         <v>1.75</v>
       </c>
       <c r="C7" s="11" t="n">
@@ -3947,7 +3950,7 @@
         <v>69</v>
       </c>
       <c r="B8" s="7" t="n">
-        <f aca="false">SUMIF(logt!G8:G15,A8,logt!F8:F15)/60</f>
+        <f aca="false">SUMIF(logt!$G$2:$G$100,A8,logt!$F$2:$F$100)/60</f>
         <v>1.83333333333333</v>
       </c>
       <c r="C8" s="11" t="n">
@@ -3959,7 +3962,7 @@
         <v>75</v>
       </c>
       <c r="B9" s="7" t="n">
-        <f aca="false">SUMIF(logt!G9:G16,A9,logt!F9:F16)/60</f>
+        <f aca="false">SUMIF(logt!$G$2:$G$100,A9,logt!$F$2:$F$100)/60</f>
         <v>2</v>
       </c>
       <c r="C9" s="3" t="n">
@@ -3971,10 +3974,22 @@
         <v>78</v>
       </c>
       <c r="B10" s="7" t="n">
-        <f aca="false">SUMIF(logt!G10:G17,A10,logt!F10:F17)/60</f>
+        <f aca="false">SUMIF(logt!$G$2:$G$100,A10,logt!$F$2:$F$100)/60</f>
         <v>0.716666666666667</v>
       </c>
       <c r="C10" s="3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="B11" s="7" t="n">
+        <f aca="false">SUMIF(logt!$G$2:$G$100,A11,logt!$F$2:$F$100)/60</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="n">
         <v>11</v>
       </c>
     </row>
@@ -3994,10 +4009,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:11"/>
+  <dimension ref="1:12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7262,25 +7277,18 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
-        <v>41970</v>
-      </c>
+      <c r="A9" s="13"/>
       <c r="B9" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" s="14" t="n">
-        <v>0.340277777777778</v>
-      </c>
-      <c r="D9" s="14" t="n">
-        <v>0.506944444444444</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="0"/>
       <c r="F9" s="15" t="n">
-        <f aca="false">((HOUR(D9)-HOUR(C9))*60)+(MINUTE(D9)-MINUTE(C9))-E9</f>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>43</v>
@@ -7288,26 +7296,24 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
-        <v>41974</v>
+        <v>41970</v>
       </c>
       <c r="B10" s="7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="14" t="n">
-        <v>0.381944444444444</v>
+        <v>0.340277777777778</v>
       </c>
       <c r="D10" s="14" t="n">
-        <v>0.475694444444444</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>15</v>
-      </c>
+        <v>0.506944444444444</v>
+      </c>
+      <c r="E10" s="0"/>
       <c r="F10" s="15" t="n">
         <f aca="false">((HOUR(D10)-HOUR(C10))*60)+(MINUTE(D10)-MINUTE(C10))-E10</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>44</v>
@@ -7315,28 +7321,55 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="n">
-        <v>41977</v>
+        <v>41974</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>11</v>
       </c>
       <c r="C11" s="14" t="n">
-        <v>0.386805555555556</v>
+        <v>0.381944444444444</v>
       </c>
       <c r="D11" s="14" t="n">
-        <v>0.423611111111111</v>
+        <v>0.475694444444444</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F11" s="15" t="n">
         <f aca="false">((HOUR(D11)-HOUR(C11))*60)+(MINUTE(D11)-MINUTE(C11))-E11</f>
+        <v>120</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>75</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="n">
+        <v>41977</v>
+      </c>
+      <c r="B12" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="14" t="n">
+        <v>0.386805555555556</v>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>0.423611111111111</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <f aca="false">((HOUR(D12)-HOUR(C12))*60)+(MINUTE(D12)-MINUTE(C12))-E12</f>
         <v>43</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G12" s="7" t="n">
         <v>78</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H12" s="16" t="s">
         <v>27</v>
       </c>
     </row>
